--- a/public/template/xlsx/ConfirmSummaryTemplate.xlsx
+++ b/public/template/xlsx/ConfirmSummaryTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuetao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuetao/Projects/integraud/public/template/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="340">
   <si>
     <t>CompanyName</t>
   </si>
@@ -260,9 +260,6 @@
     <t>巨力索具股份有限公司</t>
   </si>
   <si>
-    <t>往来</t>
-  </si>
-  <si>
     <t>余额较大</t>
   </si>
   <si>
@@ -1035,9 +1032,6 @@
   </si>
   <si>
     <t>销售额</t>
-  </si>
-  <si>
-    <t>应收</t>
   </si>
   <si>
     <t>钢构-应收-1</t>
@@ -1506,6 +1500,21 @@
   </si>
   <si>
     <t>企业账户</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>件</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1567,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1583,28 +1592,7 @@
     <cellStyle name="常规 2 12" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2172,7 +2160,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C51"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2206,22 +2194,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2242,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2250,29 +2238,37 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E2">
         <v>3296399.8</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" s="5"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="F2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2">
+        <v>3296399.8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" t="s">
+        <v>338</v>
+      </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>51</v>
@@ -2288,29 +2284,37 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E3">
         <v>2273083.5</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" s="5"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="F3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3">
+        <v>2273083.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" t="s">
+        <v>338</v>
+      </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
         <v>52</v>
@@ -2326,29 +2330,37 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E4">
         <v>15614813.619999999</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" s="5"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="F4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4">
+        <v>15614813.619999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" t="s">
+        <v>338</v>
+      </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
@@ -2364,29 +2376,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E5">
         <v>2776505.06</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" s="5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5">
+        <v>2776505.06</v>
+      </c>
+      <c r="H5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" t="s">
+        <v>338</v>
+      </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
         <v>54</v>
@@ -2402,29 +2422,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E6">
         <v>4331203.17</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" s="5"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6">
+        <v>4331203.17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" t="s">
+        <v>338</v>
+      </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -2440,29 +2468,37 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <v>468174.41</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" s="5"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="F7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7">
+        <v>468174.41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I7" t="s">
+        <v>338</v>
+      </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
         <v>56</v>
@@ -2478,29 +2514,37 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E8">
         <v>573162.53</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" s="5"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="F8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8">
+        <v>573162.53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I8" t="s">
+        <v>338</v>
+      </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s">
         <v>57</v>
@@ -2516,29 +2560,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E9">
         <v>623195.64</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" s="5"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="F9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9">
+        <v>623195.64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" t="s">
+        <v>338</v>
+      </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
         <v>58</v>
@@ -2554,29 +2606,37 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E10">
         <v>357946.83</v>
       </c>
-      <c r="F10"/>
-      <c r="G10" s="5"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="F10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10">
+        <v>357946.83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" t="s">
+        <v>338</v>
+      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
@@ -2592,29 +2652,37 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E11">
         <v>1188622.33</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" s="5"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="F11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11">
+        <v>1188622.33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" t="s">
+        <v>338</v>
+      </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
         <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s">
         <v>60</v>
@@ -2630,29 +2698,37 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E12">
         <v>708196.93</v>
       </c>
-      <c r="F12"/>
-      <c r="G12" s="5"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="F12" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12">
+        <v>708196.93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12" t="s">
+        <v>339</v>
+      </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s">
         <v>61</v>
@@ -2668,29 +2744,37 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E13">
         <v>50000</v>
       </c>
-      <c r="F13"/>
-      <c r="G13" s="5"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="F13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13">
+        <v>50000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I13" t="s">
+        <v>339</v>
+      </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
         <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
         <v>63</v>
@@ -2706,29 +2790,37 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E14">
         <v>291273.3</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" s="5"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="F14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14">
+        <v>291273.3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" t="s">
+        <v>339</v>
+      </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s">
         <v>64</v>
@@ -2744,29 +2836,37 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E15">
         <v>257960.47</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" s="5"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15">
+        <v>257960.47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15" t="s">
+        <v>339</v>
+      </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
         <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
         <v>65</v>
@@ -2782,29 +2882,37 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E16">
         <v>663339.05000000005</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" s="5"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="F16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16">
+        <v>663339.05000000005</v>
+      </c>
+      <c r="H16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" t="s">
+        <v>339</v>
+      </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
         <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
         <v>66</v>
@@ -2820,29 +2928,37 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E17">
         <v>285130</v>
       </c>
-      <c r="F17"/>
-      <c r="G17" s="5"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="F17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17">
+        <v>285130</v>
+      </c>
+      <c r="H17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I17" t="s">
+        <v>339</v>
+      </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s">
         <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" t="s">
         <v>67</v>
@@ -2858,29 +2974,37 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E18">
         <v>331186.78000000003</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" s="5"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="F18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18">
+        <v>331186.78000000003</v>
+      </c>
+      <c r="H18" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" t="s">
+        <v>339</v>
+      </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s">
         <v>69</v>
@@ -2896,29 +3020,37 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E19">
         <v>1902226.52</v>
       </c>
-      <c r="F19"/>
-      <c r="G19" s="5"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="F19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19">
+        <v>1902226.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" t="s">
+        <v>339</v>
+      </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
         <v>70</v>
@@ -2934,29 +3066,37 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E20">
         <v>1462442.76</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" s="5"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="F20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20">
+        <v>1462442.76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>337</v>
+      </c>
+      <c r="I20" t="s">
+        <v>339</v>
+      </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
         <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s">
         <v>71</v>
@@ -2972,29 +3112,37 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E21">
         <v>2095863.96</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" s="5"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="F21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21">
+        <v>2095863.96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21" t="s">
+        <v>339</v>
+      </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s">
         <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M21" t="s">
         <v>72</v>
@@ -3010,29 +3158,37 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E22">
         <v>1241383.78</v>
       </c>
-      <c r="F22"/>
-      <c r="G22" s="5"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="F22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22">
+        <v>1241383.78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>337</v>
+      </c>
+      <c r="I22" t="s">
+        <v>339</v>
+      </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M22" t="s">
         <v>73</v>
@@ -3045,62 +3201,62 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>937928.82</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>124</v>
       </c>
-      <c r="M23" t="s">
-        <v>125</v>
-      </c>
       <c r="N23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="5">
         <v>3820000</v>
@@ -3108,39 +3264,39 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="s">
         <v>126</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>127</v>
       </c>
-      <c r="M24" t="s">
-        <v>128</v>
-      </c>
       <c r="N24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="5">
         <v>533754.28</v>
@@ -3148,39 +3304,39 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" t="s">
         <v>129</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>130</v>
       </c>
-      <c r="M25" t="s">
-        <v>131</v>
-      </c>
       <c r="N25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" s="5">
         <v>478800</v>
@@ -3188,39 +3344,39 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" t="s">
         <v>132</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>133</v>
       </c>
-      <c r="M26" t="s">
-        <v>134</v>
-      </c>
       <c r="N26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="5">
         <v>1133732</v>
@@ -3228,39 +3384,39 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" t="s">
         <v>135</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>136</v>
       </c>
-      <c r="M27" t="s">
-        <v>137</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G28" s="5">
         <v>1241492</v>
@@ -3268,39 +3424,39 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" t="s">
         <v>138</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>139</v>
       </c>
-      <c r="M28" t="s">
-        <v>140</v>
-      </c>
       <c r="N28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" s="5">
         <v>1998500</v>
@@ -3308,39 +3464,39 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s">
         <v>141</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>142</v>
       </c>
-      <c r="M29" t="s">
-        <v>143</v>
-      </c>
       <c r="N29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" s="5">
         <v>3688355</v>
@@ -3348,39 +3504,39 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" t="s">
         <v>144</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>145</v>
       </c>
-      <c r="M30" t="s">
-        <v>146</v>
-      </c>
       <c r="N30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G31" s="5">
         <v>100000</v>
@@ -3388,41 +3544,41 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" t="s">
         <v>147</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>148</v>
       </c>
-      <c r="M31" t="s">
-        <v>149</v>
-      </c>
       <c r="N31" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
       </c>
       <c r="E32">
         <v>77640</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="5">
         <v>143210</v>
@@ -3430,41 +3586,41 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" t="s">
         <v>150</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>151</v>
       </c>
-      <c r="M32" t="s">
-        <v>152</v>
-      </c>
       <c r="N32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
       </c>
       <c r="E33">
         <v>282183.15999999997</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" s="5">
         <v>764984.45</v>
@@ -3472,16 +3628,16 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" t="s">
         <v>153</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>154</v>
-      </c>
-      <c r="M33" t="s">
-        <v>155</v>
       </c>
       <c r="N33" s="3">
         <v>18116175282</v>
@@ -3491,22 +3647,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
       </c>
       <c r="E34">
         <v>148941</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" s="5">
         <v>1122092</v>
@@ -3514,16 +3670,16 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" t="s">
         <v>156</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>157</v>
-      </c>
-      <c r="M34" t="s">
-        <v>158</v>
       </c>
       <c r="N34" s="3">
         <v>13381926288</v>
@@ -3533,22 +3689,22 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
       </c>
       <c r="E35">
         <v>99993</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="5">
         <v>118279</v>
@@ -3556,41 +3712,41 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" t="s">
         <v>159</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>160</v>
       </c>
-      <c r="M35" t="s">
-        <v>161</v>
-      </c>
       <c r="N35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
         <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
       </c>
       <c r="E36">
         <v>81800</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="5">
         <v>99760</v>
@@ -3598,16 +3754,16 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" t="s">
         <v>162</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>163</v>
-      </c>
-      <c r="M36" t="s">
-        <v>164</v>
       </c>
       <c r="N36" s="3">
         <v>13917015735</v>
@@ -3617,22 +3773,22 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
       </c>
       <c r="E37">
         <v>9500</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G37" s="5">
         <v>32728</v>
@@ -3640,39 +3796,39 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" t="s">
         <v>165</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>166</v>
       </c>
-      <c r="M37" t="s">
-        <v>167</v>
-      </c>
       <c r="N37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G38" s="5">
         <v>158200</v>
@@ -3680,16 +3836,16 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
         <v>168</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>169</v>
-      </c>
-      <c r="M38" t="s">
-        <v>170</v>
       </c>
       <c r="N38" s="3">
         <v>13916272486</v>
@@ -3699,20 +3855,20 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
         <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" s="5">
         <v>103480</v>
@@ -3720,16 +3876,16 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L39" t="s">
         <v>171</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>172</v>
-      </c>
-      <c r="M39" t="s">
-        <v>173</v>
       </c>
       <c r="N39" s="3">
         <v>13839255971</v>
@@ -3739,22 +3895,22 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
       </c>
       <c r="E40">
         <v>108240</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G40" s="5">
         <v>250557.87</v>
@@ -3762,16 +3918,16 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" t="s">
         <v>174</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>175</v>
-      </c>
-      <c r="M40" t="s">
-        <v>176</v>
       </c>
       <c r="N40" s="3">
         <v>13816371897</v>
@@ -3781,20 +3937,20 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41" s="5">
         <v>498178.5</v>
@@ -3802,16 +3958,16 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41" t="s">
         <v>177</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>178</v>
-      </c>
-      <c r="M41" t="s">
-        <v>179</v>
       </c>
       <c r="N41" s="3">
         <v>18721873650</v>
@@ -3821,20 +3977,20 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
         <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="5">
         <v>88000</v>
@@ -3842,16 +3998,16 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
+        <v>179</v>
+      </c>
+      <c r="L42" t="s">
         <v>180</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>181</v>
-      </c>
-      <c r="M42" t="s">
-        <v>182</v>
       </c>
       <c r="N42" s="3">
         <v>13701909413</v>
@@ -3861,22 +4017,22 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
         <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>83</v>
       </c>
       <c r="E43">
         <v>26000</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" s="5">
         <v>78000</v>
@@ -3884,16 +4040,16 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" t="s">
         <v>183</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>184</v>
-      </c>
-      <c r="M43" t="s">
-        <v>185</v>
       </c>
       <c r="N43" s="3">
         <v>13916626605</v>
@@ -3903,16 +4059,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44">
         <v>3234.11</v>
@@ -3923,36 +4079,36 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E45">
         <v>4665.16</v>
@@ -3963,36 +4119,36 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E46">
         <v>5575.23</v>
@@ -4003,36 +4159,36 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E47">
         <v>11091.58</v>
@@ -4043,36 +4199,36 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N47" s="3">
         <v>13933264805</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48">
         <v>7000.41</v>
@@ -4083,36 +4239,36 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E49">
         <v>3809.4</v>
@@ -4123,36 +4279,36 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E50">
         <v>20969.12</v>
@@ -4163,36 +4319,36 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N50" s="3">
         <v>13933264805</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E51">
         <v>15002.63</v>
@@ -4203,36 +4359,36 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N51" s="3">
         <v>17731126262</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E52">
         <v>100157.59</v>
@@ -4243,36 +4399,36 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N52" s="3">
         <v>13663121181</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E53">
         <v>84425.57</v>
@@ -4283,36 +4439,36 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4323,36 +4479,36 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E55">
         <v>33169.81</v>
@@ -4363,36 +4519,36 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E56">
         <v>77556</v>
@@ -4403,36 +4559,36 @@
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E57">
         <v>144388.51</v>
@@ -4443,36 +4599,36 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E58">
         <v>1.67</v>
@@ -4483,36 +4639,36 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E59">
         <v>219812.95</v>
@@ -4523,36 +4679,36 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -4561,36 +4717,36 @@
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N60" s="3">
         <v>13818875778</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -4599,36 +4755,36 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N61" s="3">
         <v>13818875778</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E62">
         <v>70473.94</v>
@@ -4639,36 +4795,36 @@
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4679,36 +4835,36 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E64">
         <v>84425.57</v>
@@ -4719,36 +4875,36 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65">
         <v>3234.11</v>
@@ -4759,36 +4915,36 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s">
         <v>221</v>
-      </c>
-      <c r="D66" t="s">
-        <v>223</v>
       </c>
       <c r="E66">
         <v>8950173.5099999998</v>
@@ -4799,36 +4955,36 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
         <v>221</v>
-      </c>
-      <c r="D67" t="s">
-        <v>223</v>
       </c>
       <c r="E67">
         <v>500000</v>
@@ -4839,36 +4995,36 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E68">
         <v>981106</v>
@@ -4879,19 +5035,19 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P68"/>
     </row>

--- a/public/template/xlsx/ConfirmSummaryTemplate.xlsx
+++ b/public/template/xlsx/ConfirmSummaryTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="335">
   <si>
     <t>CompanyName</t>
   </si>
@@ -1500,21 +1500,6 @@
   </si>
   <si>
     <t>企业账户</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>件</t>
   </si>
 </sst>
 </file>
@@ -2159,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2244,23 +2229,15 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>3296399.8</v>
       </c>
-      <c r="F2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G2">
-        <v>3296399.8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" t="s">
-        <v>338</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="s">
         <v>77</v>
       </c>
@@ -2290,23 +2267,15 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2273083.5</v>
       </c>
-      <c r="F3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3">
-        <v>2273083.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" t="s">
-        <v>338</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="s">
         <v>77</v>
       </c>
@@ -2336,23 +2305,15 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>15614813.619999999</v>
       </c>
-      <c r="F4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4">
-        <v>15614813.619999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" t="s">
-        <v>338</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" t="s">
         <v>77</v>
       </c>
@@ -2382,23 +2343,15 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>2776505.06</v>
       </c>
-      <c r="F5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5">
-        <v>2776505.06</v>
-      </c>
-      <c r="H5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" t="s">
-        <v>338</v>
-      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" t="s">
         <v>77</v>
       </c>
@@ -2428,23 +2381,15 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>4331203.17</v>
       </c>
-      <c r="F6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6">
-        <v>4331203.17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" t="s">
-        <v>338</v>
-      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="J6" t="s">
         <v>77</v>
       </c>
@@ -2474,23 +2419,15 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>468174.41</v>
       </c>
-      <c r="F7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7">
-        <v>468174.41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I7" t="s">
-        <v>338</v>
-      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="J7" t="s">
         <v>77</v>
       </c>
@@ -2520,23 +2457,15 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>573162.53</v>
       </c>
-      <c r="F8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G8">
-        <v>573162.53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I8" t="s">
-        <v>338</v>
-      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" t="s">
         <v>77</v>
       </c>
@@ -2566,23 +2495,15 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>623195.64</v>
       </c>
-      <c r="F9" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9">
-        <v>623195.64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" t="s">
-        <v>338</v>
-      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" t="s">
         <v>77</v>
       </c>
@@ -2612,23 +2533,15 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>357946.83</v>
       </c>
-      <c r="F10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G10">
-        <v>357946.83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>337</v>
-      </c>
-      <c r="I10" t="s">
-        <v>338</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" t="s">
         <v>77</v>
       </c>
@@ -2658,23 +2571,15 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>1188622.33</v>
       </c>
-      <c r="F11" t="s">
-        <v>336</v>
-      </c>
-      <c r="G11">
-        <v>1188622.33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>337</v>
-      </c>
-      <c r="I11" t="s">
-        <v>338</v>
-      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11" t="s">
         <v>77</v>
       </c>
@@ -2704,23 +2609,15 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>708196.93</v>
       </c>
-      <c r="F12" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12">
-        <v>708196.93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>337</v>
-      </c>
-      <c r="I12" t="s">
-        <v>339</v>
-      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" t="s">
         <v>77</v>
       </c>
@@ -2750,23 +2647,15 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>50000</v>
       </c>
-      <c r="F13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13">
-        <v>50000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I13" t="s">
-        <v>339</v>
-      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" t="s">
         <v>77</v>
       </c>
@@ -2796,23 +2685,15 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>291273.3</v>
       </c>
-      <c r="F14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G14">
-        <v>291273.3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>337</v>
-      </c>
-      <c r="I14" t="s">
-        <v>339</v>
-      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14" t="s">
         <v>77</v>
       </c>
@@ -2842,23 +2723,15 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>257960.47</v>
       </c>
-      <c r="F15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15">
-        <v>257960.47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>337</v>
-      </c>
-      <c r="I15" t="s">
-        <v>339</v>
-      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="J15" t="s">
         <v>77</v>
       </c>
@@ -2888,23 +2761,15 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>663339.05000000005</v>
       </c>
-      <c r="F16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16">
-        <v>663339.05000000005</v>
-      </c>
-      <c r="H16" t="s">
-        <v>337</v>
-      </c>
-      <c r="I16" t="s">
-        <v>339</v>
-      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="J16" t="s">
         <v>77</v>
       </c>
@@ -2934,23 +2799,15 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>285130</v>
       </c>
-      <c r="F17" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17">
-        <v>285130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>337</v>
-      </c>
-      <c r="I17" t="s">
-        <v>339</v>
-      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" t="s">
         <v>77</v>
       </c>
@@ -2980,23 +2837,15 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>331186.78000000003</v>
       </c>
-      <c r="F18" t="s">
-        <v>336</v>
-      </c>
-      <c r="G18">
-        <v>331186.78000000003</v>
-      </c>
-      <c r="H18" t="s">
-        <v>337</v>
-      </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18" t="s">
         <v>77</v>
       </c>
@@ -3026,23 +2875,15 @@
         <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>1902226.52</v>
       </c>
-      <c r="F19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19">
-        <v>1902226.52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>337</v>
-      </c>
-      <c r="I19" t="s">
-        <v>339</v>
-      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19" t="s">
         <v>77</v>
       </c>
@@ -3072,23 +2913,15 @@
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>1462442.76</v>
       </c>
-      <c r="F20" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20">
-        <v>1462442.76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>337</v>
-      </c>
-      <c r="I20" t="s">
-        <v>339</v>
-      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="J20" t="s">
         <v>77</v>
       </c>
@@ -3118,23 +2951,15 @@
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>2095863.96</v>
       </c>
-      <c r="F21" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21">
-        <v>2095863.96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>337</v>
-      </c>
-      <c r="I21" t="s">
-        <v>339</v>
-      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="s">
         <v>77</v>
       </c>
@@ -3164,23 +2989,15 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>1241383.78</v>
       </c>
-      <c r="F22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22">
-        <v>1241383.78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>337</v>
-      </c>
-      <c r="I22" t="s">
-        <v>339</v>
-      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
       <c r="J22" t="s">
         <v>77</v>
       </c>
